--- a/LIn400toNY.xlsx
+++ b/LIn400toNY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vidya/Documents/GitHub/Scrape-IQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1382EA64-B978-4D47-8E29-6448D1B48224}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0501715F-D9D4-054B-9E71-14331A2B0638}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20260" xr2:uid="{DD70826C-FFA1-8740-B057-8B9FC7EA49D9}"/>
   </bookViews>
@@ -5732,7 +5732,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D263" sqref="D263"/>
     </sheetView>
   </sheetViews>
